--- a/itech-malawi/forms/app/stop_message_outcome.xlsx
+++ b/itech-malawi/forms/app/stop_message_outcome.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/itech-malawi/forms/app/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF370E4-2338-E44E-9094-DE1D18DE16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22560" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId4"/>
-    <sheet name="choices" sheetId="2" r:id="rId5"/>
-    <sheet name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -159,18 +168,12 @@
     <t>message_to_stop</t>
   </si>
   <si>
-    <t>Which messages does ${patient_name} wish to stop receiving?</t>
-  </si>
-  <si>
     <t>select_multiple reasons</t>
   </si>
   <si>
     <t>reasons</t>
   </si>
   <si>
-    <t>Why does ${patient_name} wish to stop receiving the messages? Select all that apply</t>
-  </si>
-  <si>
     <t>explain</t>
   </si>
   <si>
@@ -280,34 +283,29 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>Which messages should be stopped?</t>
+  </si>
+  <si>
+    <t>Why? Select all that applies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -318,7 +316,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Cambria"/>
@@ -329,13 +327,13 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Proxima Nova"/>
@@ -547,164 +545,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,32 +641,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffededed"/>
-      <rgbColor rgb="ffbdd7ee"/>
-      <rgbColor rgb="ffdeebf7"/>
-      <rgbColor rgb="ffa9d18e"/>
-      <rgbColor rgb="ffe2f0d9"/>
-      <rgbColor rgb="ff2e75b6"/>
-      <rgbColor rgb="ffd0cece"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFEDEDED"/>
+      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FF2E75B6"/>
+      <rgbColor rgb="FFD0CECE"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -940,7 +921,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -959,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,9 +1191,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1229,7 +1216,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1248,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,9 +1482,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1511,7 +1504,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1530,7 +1523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1716,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1742,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,75 +1774,84 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8516" style="1" customWidth="1"/>
-    <col min="13" max="26" width="11.5" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="27" width="11.5" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="4">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="4">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5"/>
@@ -1867,20 +1869,20 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" ht="15.25" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="11">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="12"/>
@@ -1905,25 +1907,25 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" ht="15.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" t="s" s="11">
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" t="s" s="11">
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="13"/>
@@ -1943,18 +1945,18 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" ht="15.25" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" t="s" s="11">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="12"/>
@@ -1979,14 +1981,14 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" ht="15.25" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="12"/>
@@ -2013,26 +2015,26 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" ht="15.25" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" t="s" s="10">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s" s="10">
+      <c r="F6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" t="s" s="10">
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="12"/>
@@ -2053,14 +2055,14 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" ht="15.25" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="12"/>
@@ -2087,14 +2089,14 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" ht="15.25" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
@@ -2121,8 +2123,8 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" ht="15.25" customHeight="1">
-      <c r="A9" t="s" s="7">
+    <row r="9" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="18"/>
@@ -2151,8 +2153,8 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" ht="15.25" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18"/>
@@ -2181,7 +2183,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" ht="15.25" customHeight="1">
+    <row r="11" spans="1:26" ht="15.25" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
@@ -2209,14 +2211,14 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" ht="15.25" customHeight="1">
-      <c r="A12" t="s" s="22">
+    <row r="12" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s" s="23">
+      <c r="B12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="24">
+      <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="25"/>
@@ -2226,7 +2228,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" t="s" s="24">
+      <c r="K12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="L12" s="26"/>
@@ -2245,14 +2247,14 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" ht="15.25" customHeight="1">
-      <c r="A13" t="s" s="22">
+    <row r="13" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s" s="23">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s" s="24">
+      <c r="C13" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="25"/>
@@ -2262,7 +2264,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" t="s" s="24">
+      <c r="K13" s="24" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="26"/>
@@ -2281,14 +2283,14 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" ht="15.25" customHeight="1">
-      <c r="A14" t="s" s="22">
+    <row r="14" spans="1:26" ht="15.25" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s" s="23">
+      <c r="B14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="24">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="25"/>
@@ -2298,10 +2300,10 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" t="s" s="24">
+      <c r="K14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L14" t="s" s="24">
+      <c r="L14" s="24" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="16"/>
@@ -2319,7 +2321,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" ht="15.25" customHeight="1">
+    <row r="15" spans="1:26" ht="15.25" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -2347,14 +2349,14 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" ht="29.25" customHeight="1">
-      <c r="A16" t="s" s="27">
+    <row r="16" spans="1:26" ht="29.25" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s" s="28">
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="29">
+      <c r="C16" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="30"/>
@@ -2381,19 +2383,19 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" ht="29.25" customHeight="1">
-      <c r="A17" t="s" s="27">
+    <row r="17" spans="1:26" ht="29.25" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s" s="28">
+      <c r="B17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="29">
-        <v>48</v>
+      <c r="C17" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" t="s" s="32">
+      <c r="F17" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="30"/>
@@ -2417,8 +2419,8 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" ht="29.25" customHeight="1">
-      <c r="A18" t="s" s="27">
+    <row r="18" spans="1:26" ht="29.25" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="33"/>
@@ -2447,19 +2449,19 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" ht="51.25" customHeight="1">
-      <c r="A19" t="s" s="27">
+    <row r="19" spans="1:26" ht="51.25" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s" s="28">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s" s="29">
-        <v>51</v>
+      <c r="C19" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" t="s" s="32">
+      <c r="F19" s="32" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="30"/>
@@ -2483,15 +2485,15 @@
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" t="s" s="27">
+    <row r="20" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s" s="28">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="29">
-        <v>53</v>
+      <c r="B20" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2517,7 +2519,7 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" ht="27.75" customHeight="1">
+    <row r="21" spans="1:26" ht="27.75" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="33"/>
       <c r="C21" s="31"/>
@@ -2545,7 +2547,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" ht="15.25" customHeight="1">
+    <row r="22" spans="1:26" ht="15.25" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
@@ -2573,7 +2575,7 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" ht="15.25" customHeight="1">
+    <row r="23" spans="1:26" ht="15.25" customHeight="1">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
@@ -2601,7 +2603,7 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" ht="15.25" customHeight="1">
+    <row r="24" spans="1:26" ht="15.25" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
@@ -2630,8 +2632,8 @@
       <c r="Z24" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2639,248 +2641,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="20.6719" style="39" customWidth="1"/>
-    <col min="3" max="3" width="36.1719" style="39" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="39" customWidth="1"/>
+    <col min="4" max="6" width="11.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" customHeight="1">
-      <c r="A1" t="s" s="40">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s" s="40">
+    <row r="1" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="40">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" ht="15.25" customHeight="1">
-      <c r="A2" t="s" s="41">
+    <row r="2" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s" s="41">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s" s="41">
-        <v>56</v>
+      <c r="B2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" ht="15.25" customHeight="1">
-      <c r="A3" t="s" s="41">
+    <row r="3" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s" s="41">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s" s="41">
-        <v>58</v>
+      <c r="B3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" ht="15.25" customHeight="1">
+    <row r="4" spans="1:5" ht="15.25" customHeight="1">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" ht="15.25" customHeight="1">
-      <c r="A5" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="43">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>60</v>
+    <row r="5" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" ht="15.25" customHeight="1">
-      <c r="A6" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s" s="43">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s" s="43">
-        <v>62</v>
+    <row r="6" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" ht="15.25" customHeight="1">
-      <c r="A7" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s" s="43">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s" s="43">
-        <v>64</v>
+    <row r="7" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" ht="15.25" customHeight="1">
-      <c r="A8" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s" s="43">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s" s="43">
-        <v>66</v>
+    <row r="8" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" ht="15.25" customHeight="1">
-      <c r="A9" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s" s="43">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s" s="43">
-        <v>68</v>
+    <row r="9" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" ht="15.25" customHeight="1">
-      <c r="A10" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s" s="43">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s" s="43">
-        <v>70</v>
+    <row r="10" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" ht="15.25" customHeight="1">
-      <c r="A11" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s" s="43">
-        <v>72</v>
+    <row r="11" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" ht="15.25" customHeight="1">
-      <c r="A12" t="s" s="43">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s" s="43">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s" s="43">
-        <v>74</v>
+    <row r="12" spans="1:5" ht="15.25" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" ht="15.25" customHeight="1">
+    <row r="13" spans="1:5" ht="15.25" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" ht="15.25" customHeight="1">
+    <row r="14" spans="1:5" ht="15.25" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" ht="15.25" customHeight="1">
+    <row r="15" spans="1:5" ht="15.25" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" ht="15.25" customHeight="1">
+    <row r="16" spans="1:5" ht="15.25" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" ht="15.25" customHeight="1">
+    <row r="17" spans="1:5" ht="15.25" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" ht="15.25" customHeight="1">
+    <row r="18" spans="1:5" ht="15.25" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" ht="15.25" customHeight="1">
+    <row r="19" spans="1:5" ht="15.25" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" ht="15.25" customHeight="1">
+    <row r="20" spans="1:5" ht="15.25" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" ht="15.25" customHeight="1">
+    <row r="21" spans="1:5" ht="15.25" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" ht="15.25" customHeight="1">
+    <row r="22" spans="1:5" ht="15.25" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" ht="15.25" customHeight="1">
+    <row r="23" spans="1:5" ht="15.25" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" ht="15.25" customHeight="1">
+    <row r="24" spans="1:5" ht="15.25" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2888,8 +2890,8 @@
       <c r="E24" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2897,49 +2899,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32" style="44" customWidth="1"/>
-    <col min="2" max="2" width="43.8516" style="44" customWidth="1"/>
-    <col min="3" max="3" width="32.8516" style="44" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="44" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="44" customWidth="1"/>
     <col min="5" max="15" width="11.5" style="44" customWidth="1"/>
-    <col min="16" max="26" width="8.85156" style="44" customWidth="1"/>
-    <col min="27" max="16384" width="11.5" style="44" customWidth="1"/>
+    <col min="16" max="26" width="8.83203125" style="44" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="44" customWidth="1"/>
+    <col min="28" max="16384" width="11.5" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="45">
+    <row r="1" spans="1:26" ht="18" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s" s="45">
+      <c r="D1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s" s="45">
+      <c r="E1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s" s="45">
+      <c r="F1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s" s="45">
+      <c r="G1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s" s="45">
+      <c r="I1" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" t="s" s="45">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s" s="45">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s" s="45">
-        <v>82</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
@@ -2959,31 +2962,31 @@
       <c r="Y1" s="46"/>
       <c r="Z1" s="46"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="47">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s" s="48">
-        <v>84</v>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="49">
         <v>43008</v>
       </c>
-      <c r="D2" t="s" s="48">
+      <c r="D2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s" s="48">
+      <c r="H2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="48" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" t="s" s="48">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s" s="48">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s" s="48">
-        <v>88</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -3003,7 +3006,7 @@
       <c r="Y2" s="50"/>
       <c r="Z2" s="50"/>
     </row>
-    <row r="3" ht="15.25" customHeight="1">
+    <row r="3" spans="1:26" ht="15.25" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3031,7 +3034,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" ht="15.25" customHeight="1">
+    <row r="4" spans="1:26" ht="15.25" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3059,7 +3062,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" ht="15.25" customHeight="1">
+    <row r="5" spans="1:26" ht="15.25" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3087,7 +3090,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" ht="15.25" customHeight="1">
+    <row r="6" spans="1:26" ht="15.25" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -3115,7 +3118,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" ht="15.25" customHeight="1">
+    <row r="7" spans="1:26" ht="15.25" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3143,7 +3146,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" ht="15.25" customHeight="1">
+    <row r="8" spans="1:26" ht="15.25" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3171,7 +3174,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" ht="15.25" customHeight="1">
+    <row r="9" spans="1:26" ht="15.25" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -3199,7 +3202,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" ht="15.25" customHeight="1">
+    <row r="10" spans="1:26" ht="15.25" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3228,8 +3231,8 @@
       <c r="Z10" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/itech-malawi/forms/app/stop_message_outcome.xlsx
+++ b/itech-malawi/forms/app/stop_message_outcome.xlsx
@@ -1,28 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/itech-malawi/forms/app/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF370E4-2338-E44E-9094-DE1D18DE16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22560" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId4"/>
+    <sheet name="choices" sheetId="2" r:id="rId5"/>
+    <sheet name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -168,73 +159,115 @@
     <t>message_to_stop</t>
   </si>
   <si>
+    <t>Which messages would you like to stop for ${patient_name}?</t>
+  </si>
+  <si>
     <t>select_multiple reasons</t>
   </si>
   <si>
+    <t>adherence_reasons</t>
+  </si>
+  <si>
+    <t>Reason(s) for opting out of motivational messages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${message_to_stop}, ‘motivation_messages’) </t>
+  </si>
+  <si>
+    <t>reminders_reasons</t>
+  </si>
+  <si>
+    <t>Reason(s) for opting out of visit reminders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${message_to_stop}, ‘visit_reminders’) </t>
+  </si>
+  <si>
+    <t>will_be_muted</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>../message/message_to_stop = ‘motivation_messages visit_reminders’</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>Please Explain</t>
+  </si>
+  <si>
+    <t>rapidpro</t>
+  </si>
+  <si>
+    <t>optout</t>
+  </si>
+  <si>
+    <t>Optout</t>
+  </si>
+  <si>
+    <t>../../message/message_to_stop = ‘motivation_messages visit_reminders’</t>
+  </si>
+  <si>
+    <t>adherence</t>
+  </si>
+  <si>
+    <t>Adherence</t>
+  </si>
+  <si>
+    <t>../../message/message_to_stop = motivation_messages</t>
+  </si>
+  <si>
+    <t>reminders</t>
+  </si>
+  <si>
+    <t>Reminders</t>
+  </si>
+  <si>
+    <t>../../message/message_to_stop = ‘visit_reminders’</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>motivation_messages</t>
+  </si>
+  <si>
+    <t>Motivation Messages</t>
+  </si>
+  <si>
+    <t>visit_reminders</t>
+  </si>
+  <si>
+    <t>Visit Reminders</t>
+  </si>
+  <si>
     <t>reasons</t>
   </si>
   <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>Please Explain</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>motivation_messages</t>
-  </si>
-  <si>
-    <t>Motivation Messages</t>
-  </si>
-  <si>
-    <t>visit_reminders</t>
-  </si>
-  <si>
-    <t>Visit Reminders</t>
-  </si>
-  <si>
     <t>too_many_messages</t>
   </si>
   <si>
-    <t>Patient says the messages are too many</t>
+    <t>Messages are too many</t>
   </si>
   <si>
     <t>discontinue_study</t>
   </si>
   <si>
-    <t>Patient does not wish to continue participating in the study</t>
+    <t>Does not wish to continue participating in the study</t>
   </si>
   <si>
     <t>confidentiality_concerns</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient has raised confidentiality concerns </t>
+    <t xml:space="preserve">Has raised confidentiality concerns </t>
   </si>
   <si>
     <t>no_mobile_device</t>
   </si>
   <si>
-    <t>Patient no longer has access to a mobile device</t>
-  </si>
-  <si>
-    <t>relocations</t>
-  </si>
-  <si>
-    <t>Patient has moved to another location/district</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>Patient died</t>
-  </si>
-  <si>
-    <t>no_contact</t>
-  </si>
-  <si>
-    <t>Cannot find or contact patient</t>
+    <t>No longer has access to a mobile device</t>
   </si>
   <si>
     <t>other</t>
@@ -283,29 +316,34 @@
   </si>
   <si>
     <t>en</t>
-  </si>
-  <si>
-    <t>Which messages should be stopped?</t>
-  </si>
-  <si>
-    <t>Why? Select all that applies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -316,7 +354,17 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Cambria"/>
@@ -327,19 +375,19 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Proxima Nova"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +442,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -515,16 +575,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="18"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="18"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="20"/>
+      </left>
+      <right style="thin">
+        <color indexed="20"/>
+      </right>
+      <top style="thin">
+        <color indexed="20"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +609,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
+        <color indexed="20"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -545,94 +618,188 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,85 +808,34 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFEDEDED"/>
-      <rgbColor rgb="FFBDD7EE"/>
-      <rgbColor rgb="FFDEEBF7"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FF2E75B6"/>
-      <rgbColor rgb="FFD0CECE"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffededed"/>
+      <rgbColor rgb="ffbdd7ee"/>
+      <rgbColor rgb="ffdeebf7"/>
+      <rgbColor rgb="ffa9d18e"/>
+      <rgbColor rgb="ffe2f0d9"/>
+      <rgbColor rgb="ffc2d69b"/>
+      <rgbColor rgb="ffd6e3bc"/>
+      <rgbColor rgb="ff2e75b6"/>
+      <rgbColor rgb="ffd0cece"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -921,7 +1037,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -940,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,15 +1307,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1216,7 +1326,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1235,7 +1345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1449,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1475,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1501,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1527,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,15 +1592,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1504,7 +1608,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1523,7 +1627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1605,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1657,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1683,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1709,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1735,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1761,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1774,84 +1878,75 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6094" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.8516" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
-    <col min="13" max="27" width="11.5" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.5" style="1"/>
+    <col min="11" max="11" width="56.1719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.8516" style="1" customWidth="1"/>
+    <col min="13" max="26" width="11.5" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s" s="4">
         <v>11</v>
       </c>
       <c r="M1" s="5"/>
@@ -1869,20 +1964,20 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="15.25" customHeight="1">
+      <c r="A2" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s" s="11">
         <v>16</v>
       </c>
       <c r="F2" s="12"/>
@@ -1907,25 +2002,25 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="15.25" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s" s="9">
         <v>19</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s" s="11">
         <v>20</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" t="s" s="11">
         <v>21</v>
       </c>
       <c r="K3" s="13"/>
@@ -1945,18 +2040,18 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="15.25" customHeight="1">
+      <c r="A4" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s" s="9">
         <v>23</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" t="s" s="11">
         <v>20</v>
       </c>
       <c r="F4" s="12"/>
@@ -1981,14 +2076,14 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="15.25" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s" s="9">
         <v>25</v>
       </c>
       <c r="D5" s="12"/>
@@ -2015,26 +2110,26 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="15.25" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s" s="9">
         <v>28</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" t="s" s="10">
         <v>30</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" t="s" s="10">
         <v>31</v>
       </c>
       <c r="J6" s="12"/>
@@ -2055,14 +2150,14 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="15.25" customHeight="1">
+      <c r="A7" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s" s="9">
         <v>32</v>
       </c>
       <c r="D7" s="12"/>
@@ -2089,14 +2184,14 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="15.25" customHeight="1">
+      <c r="A8" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s" s="9">
         <v>34</v>
       </c>
       <c r="D8" s="12"/>
@@ -2123,8 +2218,8 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="15.25" customHeight="1">
+      <c r="A9" t="s" s="7">
         <v>35</v>
       </c>
       <c r="B9" s="18"/>
@@ -2153,8 +2248,8 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" ht="15.25" customHeight="1">
+      <c r="A10" t="s" s="7">
         <v>35</v>
       </c>
       <c r="B10" s="18"/>
@@ -2183,7 +2278,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" ht="15.25" customHeight="1">
+    <row r="11" ht="15.25" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
@@ -2211,14 +2306,14 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" ht="15.25" customHeight="1">
+      <c r="A12" t="s" s="22">
         <v>36</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" t="s" s="24">
         <v>32</v>
       </c>
       <c r="D12" s="25"/>
@@ -2228,7 +2323,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="24" t="s">
+      <c r="K12" t="s" s="24">
         <v>38</v>
       </c>
       <c r="L12" s="26"/>
@@ -2247,14 +2342,14 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A13" s="22" t="s">
+    <row r="13" ht="15.25" customHeight="1">
+      <c r="A13" t="s" s="22">
         <v>36</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" t="s" s="23">
         <v>33</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" t="s" s="24">
         <v>39</v>
       </c>
       <c r="D13" s="25"/>
@@ -2264,7 +2359,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="24" t="s">
+      <c r="K13" t="s" s="24">
         <v>40</v>
       </c>
       <c r="L13" s="26"/>
@@ -2283,14 +2378,14 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A14" s="22" t="s">
+    <row r="14" ht="15.25" customHeight="1">
+      <c r="A14" t="s" s="22">
         <v>36</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" t="s" s="23">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" t="s" s="24">
         <v>42</v>
       </c>
       <c r="D14" s="25"/>
@@ -2300,10 +2395,10 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="24" t="s">
+      <c r="K14" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" t="s" s="24">
         <v>20</v>
       </c>
       <c r="M14" s="16"/>
@@ -2321,7 +2416,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" ht="15.25" customHeight="1">
+    <row r="15" ht="15.25" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -2349,14 +2444,14 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A16" s="27" t="s">
+    <row r="16" ht="29.25" customHeight="1">
+      <c r="A16" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" t="s" s="28">
         <v>44</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" t="s" s="29">
         <v>45</v>
       </c>
       <c r="D16" s="30"/>
@@ -2383,19 +2478,19 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A17" s="27" t="s">
+    <row r="17" ht="29.25" customHeight="1">
+      <c r="A17" t="s" s="27">
         <v>46</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" t="s" s="28">
         <v>47</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>87</v>
+      <c r="C17" t="s" s="29">
+        <v>48</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="32" t="s">
+      <c r="F17" t="s" s="32">
         <v>30</v>
       </c>
       <c r="G17" s="30"/>
@@ -2419,8 +2514,8 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A18" s="27" t="s">
+    <row r="18" ht="29.25" customHeight="1">
+      <c r="A18" t="s" s="27">
         <v>35</v>
       </c>
       <c r="B18" s="33"/>
@@ -2449,19 +2544,21 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:26" ht="51.25" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="28" t="s">
+    <row r="19" ht="51.25" customHeight="1">
+      <c r="A19" t="s" s="27">
         <v>49</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="B19" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s" s="29">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s" s="32">
+        <v>52</v>
+      </c>
       <c r="E19" s="30"/>
-      <c r="F19" s="32" t="s">
+      <c r="F19" t="s" s="32">
         <v>30</v>
       </c>
       <c r="G19" s="30"/>
@@ -2485,19 +2582,23 @@
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="30"/>
+    <row r="20" ht="51.25" customHeight="1">
+      <c r="A20" t="s" s="27">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="28">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="29">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s" s="32">
+        <v>55</v>
+      </c>
       <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="F20" t="s" s="32">
+        <v>30</v>
+      </c>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -2519,18 +2620,26 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
+    <row r="21" ht="51.25" customHeight="1">
+      <c r="A21" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="28">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s" s="29">
+        <v>57</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="K21" t="s" s="29">
+        <v>58</v>
+      </c>
       <c r="L21" s="31"/>
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
@@ -2547,22 +2656,28 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+    <row r="22" ht="27.75" customHeight="1">
+      <c r="A22" t="s" s="27">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s" s="29">
+        <v>60</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
@@ -2575,65 +2690,183 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.25" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
+    <row r="23" ht="27.75" customHeight="1">
+      <c r="A23" t="s" s="36">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s" s="37">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="38">
+        <v>57</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" t="s" s="40">
+        <v>20</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+    </row>
+    <row r="24" ht="15.25" customHeight="1">
+      <c r="A24" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="37">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s" s="38">
+        <v>63</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" t="s" s="46">
+        <v>64</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+    </row>
+    <row r="25" ht="15.25" customHeight="1">
+      <c r="A25" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s" s="37">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s" s="38">
+        <v>66</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" t="s" s="46">
+        <v>67</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+    </row>
+    <row r="26" ht="15.25" customHeight="1">
+      <c r="A26" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s" s="37">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s" s="38">
+        <v>69</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" t="s" s="46">
+        <v>70</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+    </row>
+    <row r="27" ht="15.25" customHeight="1">
+      <c r="A27" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2641,257 +2874,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="39" customWidth="1"/>
-    <col min="4" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="39"/>
+    <col min="1" max="1" width="16.5" style="47" customWidth="1"/>
+    <col min="2" max="2" width="20.6719" style="47" customWidth="1"/>
+    <col min="3" max="3" width="36.1719" style="47" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A1" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" ht="15.25" customHeight="1">
+      <c r="A1" t="s" s="48">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s" s="48">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" t="s" s="48">
         <v>2</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A2" s="41" t="s">
+    <row r="2" ht="15.25" customHeight="1">
+      <c r="A2" t="s" s="49">
         <v>47</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>54</v>
+      <c r="B2" t="s" s="49">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s" s="49">
+        <v>73</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+    <row r="3" ht="15.25" customHeight="1">
+      <c r="A3" t="s" s="49">
         <v>47</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>56</v>
+      <c r="B3" t="s" s="49">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="49">
+        <v>75</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+    <row r="4" ht="15.25" customHeight="1">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>58</v>
+    <row r="5" ht="15.25" customHeight="1">
+      <c r="A5" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s" s="51">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s" s="51">
+        <v>78</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>60</v>
+    <row r="6" ht="15.25" customHeight="1">
+      <c r="A6" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s" s="51">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s" s="51">
+        <v>80</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>62</v>
+    <row r="7" ht="15.25" customHeight="1">
+      <c r="A7" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s" s="51">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s" s="51">
+        <v>82</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>64</v>
+    <row r="8" ht="15.25" customHeight="1">
+      <c r="A8" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s" s="51">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s" s="51">
+        <v>84</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A9" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>66</v>
+    <row r="9" ht="15.25" customHeight="1">
+      <c r="A9" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="51">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s" s="51">
+        <v>86</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>68</v>
-      </c>
+    <row r="10" ht="15.25" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>70</v>
-      </c>
+    <row r="11" ht="15.25" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>72</v>
-      </c>
+    <row r="12" ht="15.25" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="15.25" customHeight="1">
+    <row r="13" ht="15.25" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" ht="15.25" customHeight="1">
+    <row r="14" ht="15.25" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" ht="15.25" customHeight="1">
+    <row r="15" ht="15.25" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" ht="15.25" customHeight="1">
+    <row r="16" ht="15.25" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:5" ht="15.25" customHeight="1">
+    <row r="17" ht="15.25" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" ht="15.25" customHeight="1">
+    <row r="18" ht="15.25" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:5" ht="15.25" customHeight="1">
+    <row r="19" ht="15.25" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" ht="15.25" customHeight="1">
+    <row r="20" ht="15.25" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:5" ht="15.25" customHeight="1">
+    <row r="21" ht="15.25" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2899,114 +3093,113 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32" style="44" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="44" customWidth="1"/>
-    <col min="5" max="15" width="11.5" style="44" customWidth="1"/>
-    <col min="16" max="26" width="8.83203125" style="44" customWidth="1"/>
-    <col min="27" max="27" width="11.5" style="44" customWidth="1"/>
-    <col min="28" max="16384" width="11.5" style="44"/>
+    <col min="1" max="1" width="32" style="52" customWidth="1"/>
+    <col min="2" max="2" width="43.8516" style="52" customWidth="1"/>
+    <col min="3" max="3" width="32.8516" style="52" customWidth="1"/>
+    <col min="4" max="4" width="20.8516" style="52" customWidth="1"/>
+    <col min="5" max="15" width="11.5" style="52" customWidth="1"/>
+    <col min="16" max="26" width="8.85156" style="52" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="45" t="s">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" t="s" s="53">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s" s="53">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s" s="53">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s" s="53">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s" s="53">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s" s="53">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s" s="53">
         <v>1</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="49">
+      <c r="H1" t="s" s="53">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s" s="53">
+        <v>94</v>
+      </c>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="s" s="55">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="56">
+        <v>96</v>
+      </c>
+      <c r="C2" s="57">
         <v>43008</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.25" customHeight="1">
+      <c r="D2" t="s" s="56">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s" s="56">
+        <v>98</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" t="s" s="56">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s" s="56">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s" s="56">
+        <v>100</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+    </row>
+    <row r="3" ht="15.25" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3034,7 +3227,7 @@
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
     </row>
-    <row r="4" spans="1:26" ht="15.25" customHeight="1">
+    <row r="4" ht="15.25" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3062,7 +3255,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" ht="15.25" customHeight="1">
+    <row r="5" ht="15.25" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3090,7 +3283,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" ht="15.25" customHeight="1">
+    <row r="6" ht="15.25" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -3118,7 +3311,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" ht="15.25" customHeight="1">
+    <row r="7" ht="15.25" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3146,7 +3339,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26" ht="15.25" customHeight="1">
+    <row r="8" ht="15.25" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3174,7 +3367,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" ht="15.25" customHeight="1">
+    <row r="9" ht="15.25" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -3202,7 +3395,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" ht="15.25" customHeight="1">
+    <row r="10" ht="15.25" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3231,8 +3424,8 @@
       <c r="Z10" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98402800000000001" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
